--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="13200"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>时间</t>
   </si>
@@ -37,6 +37,9 @@
     <t>备注</t>
   </si>
   <si>
+    <t>1、PC 帮助中心 运费及时效 文案信息调整</t>
+  </si>
+  <si>
     <t>朱伟</t>
   </si>
   <si>
@@ -49,74 +52,62 @@
     <t>已处理</t>
   </si>
   <si>
-    <t>1、PC 帮助中心 运费及时效 文案信息调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2、给 姚飞 开通特卖账号以及访问权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>姚飞</t>
   </si>
   <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、尼尔森4月份的数据</t>
   </si>
   <si>
     <t>张龙云</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">  </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、尼尔森4月份的数据</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4、商品 629536 分时段成本价格后台手动审核</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>吕海琴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、5.1号国家规定11%的税率调整为10%，17%税率调整16%，档案系统需全部调整</t>
   </si>
   <si>
     <t>刘丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、5.1号国家规定11%的税率调整为10%，17%税率调整16%，档案系统需全部调整</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、图片无法上传，图片服务器CUP 100%</t>
+  </si>
+  <si>
+    <t>张雪顺/刘丹</t>
+  </si>
+  <si>
+    <t>BUG</t>
+  </si>
+  <si>
+    <t>已解决</t>
+  </si>
+  <si>
+    <t>图片服务CPU 100%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,13 +124,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -152,8 +281,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -161,9 +476,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -181,10 +738,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -195,7 +799,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -217,7 +821,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -231,7 +835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1895475" y="838200"/>
-          <a:ext cx="6829425" cy="4895849"/>
+          <a:ext cx="6829425" cy="4895215"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -261,7 +865,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -275,7 +879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1924050" y="6181725"/>
-          <a:ext cx="5220429" cy="4077269"/>
+          <a:ext cx="5220335" cy="4076700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -305,15 +909,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="13725525"/>
-          <a:ext cx="5190477" cy="3514286"/>
+          <a:off x="1828800" y="14582775"/>
+          <a:ext cx="5189855" cy="3514090"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -343,7 +947,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -351,7 +955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1866900" y="10801350"/>
-          <a:ext cx="5209524" cy="2390476"/>
+          <a:ext cx="5208905" cy="2390140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -381,7 +985,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -395,7 +999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7305675" y="10772775"/>
-          <a:ext cx="5591956" cy="3229426"/>
+          <a:ext cx="5591810" cy="3228975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -425,7 +1029,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -438,8 +1042,84 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828800" y="18849975"/>
-          <a:ext cx="7811591" cy="5906325"/>
+          <a:off x="1828800" y="18678525"/>
+          <a:ext cx="7811135" cy="5906135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5048885</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7" descr="1525330343(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="25212675"/>
+          <a:ext cx="4858385" cy="4715510"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5381625</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1419860</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8" descr="1525330461(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7010400" y="25260300"/>
+          <a:ext cx="5182235" cy="5058410"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -703,20 +1383,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -726,7 +1407,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,27 +1430,27 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43222</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -777,74 +1458,97 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
         <v>14</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6">
+      <c r="B60" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
+      <c r="C60" t="s">
         <v>16</v>
       </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+    <row r="62" spans="7:7">
+      <c r="G62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" t="s">
         <v>19</v>
       </c>
-      <c r="C60" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="D82" t="s">
+        <v>9</v>
+      </c>
+      <c r="E82" t="s">
         <v>14</v>
       </c>
-      <c r="E60" t="s">
-        <v>15</v>
-      </c>
-      <c r="F60" t="s">
-        <v>16</v>
+      <c r="F82" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="G62" t="s">
-        <v>18</v>
+    <row r="106" spans="2:6">
+      <c r="B106" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>21</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B82" t="s">
-        <v>20</v>
-      </c>
-      <c r="C82" t="s">
-        <v>21</v>
-      </c>
-      <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B106" s="3" t="s">
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>43223</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C144" t="s">
+        <v>23</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>24</v>
+      </c>
+      <c r="F144" t="s">
+        <v>25</v>
+      </c>
+      <c r="G144" t="s">
         <v>26</v>
-      </c>
-      <c r="C106" t="s">
-        <v>22</v>
-      </c>
-      <c r="D106" t="s">
-        <v>23</v>
-      </c>
-      <c r="E106" t="s">
-        <v>24</v>
-      </c>
-      <c r="F106" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>时间</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>图片服务CPU 100%</t>
+  </si>
+  <si>
+    <t>1、拉取在售商品基本信息、30天销量、可用库存</t>
+  </si>
+  <si>
+    <t>刘静</t>
   </si>
 </sst>
 </file>
@@ -125,16 +131,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -161,6 +176,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -175,15 +198,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,7 +239,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,54 +273,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -283,6 +289,138 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -301,24 +439,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,48 +451,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -392,78 +470,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,41 +483,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,26 +522,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +556,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -582,10 +588,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +600,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1128,6 +1134,82 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5744210</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>153035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9" descr="企业微信截图_15254366939730"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="30918150"/>
+          <a:ext cx="5496560" cy="4782185"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76835</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10" descr="1525436909(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="30889575"/>
+          <a:ext cx="4944110" cy="5144135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1389,12 +1471,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C155" sqref="C155"/>
+      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1546,6 +1628,26 @@
         <v>26</v>
       </c>
     </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="2">
+        <v>43224</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C177" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13200"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>时间</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>刘静</t>
+  </si>
+  <si>
+    <t>1、628122 628123 分时段成本帮我审核一下呀，从今天开始的我审核不了</t>
   </si>
 </sst>
 </file>
@@ -108,10 +111,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -131,7 +134,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,6 +155,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -153,16 +239,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,9 +249,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -185,90 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,31 +292,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -325,151 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,6 +483,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,15 +516,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -518,6 +527,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,30 +583,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -588,10 +591,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -600,31 +603,37 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -633,100 +642,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1210,6 +1213,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5163185</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11" descr="1525691636(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1914525" y="36576000"/>
+          <a:ext cx="4877435" cy="5115560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1471,12 +1512,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C182" sqref="C182"/>
+      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1648,6 +1689,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="210" spans="1:6">
+      <c r="A210" s="2">
+        <v>43227</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>21</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>时间</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>1、628122 628123 分时段成本帮我审核一下呀，从今天开始的我审核不了</t>
+  </si>
+  <si>
+    <t>2、拉取在售商品基本信息、30天销量、可用库存</t>
   </si>
 </sst>
 </file>
@@ -111,9 +114,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -134,14 +137,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,6 +151,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -165,7 +176,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,66 +236,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -247,6 +244,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -254,28 +279,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -292,37 +295,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,145 +475,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,21 +486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,6 +504,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -527,24 +524,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +562,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -591,10 +594,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -603,37 +606,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,94 +639,100 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1251,6 +1254,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5706110</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>38735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12" descr="企业微信截图_15256957903857"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1905000" y="42176700"/>
+          <a:ext cx="5429885" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1512,12 +1553,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C211" sqref="C211"/>
+      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1709,6 +1750,24 @@
         <v>11</v>
       </c>
     </row>
+    <row r="243" spans="1:6">
+      <c r="A243" s="2"/>
+      <c r="B243" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>时间</t>
   </si>
@@ -107,6 +107,15 @@
   </si>
   <si>
     <t>2、拉取在售商品基本信息、30天销量、可用库存</t>
+  </si>
+  <si>
+    <t>1、特卖后台可以增加一档么 ，99-15</t>
+  </si>
+  <si>
+    <t>袁楚</t>
+  </si>
+  <si>
+    <t>2、开通mks账号和权限</t>
   </si>
 </sst>
 </file>
@@ -114,10 +123,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -137,7 +146,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,15 +213,46 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,14 +266,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -191,81 +275,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -295,31 +304,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,151 +484,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,6 +495,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,37 +571,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,30 +590,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -594,10 +603,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,133 +615,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,6 +1293,82 @@
         <a:xfrm>
           <a:off x="1905000" y="42176700"/>
           <a:ext cx="5429885" cy="4553585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>4991735</xdr:colOff>
+      <xdr:row>301</xdr:row>
+      <xdr:rowOff>57785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13" descr="1525951666(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="47377350"/>
+          <a:ext cx="4763135" cy="4686935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>304</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5153660</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>67310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14" descr="1525951827(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1819275" y="52539900"/>
+          <a:ext cx="4963160" cy="5191760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1553,12 +1638,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G243"/>
+  <dimension ref="A1:G303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B244" sqref="B244"/>
+      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1768,6 +1853,43 @@
         <v>11</v>
       </c>
     </row>
+    <row r="273" spans="1:6">
+      <c r="A273" s="2">
+        <v>43230</v>
+      </c>
+      <c r="B273" t="s">
+        <v>31</v>
+      </c>
+      <c r="C273" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" t="s">
+        <v>14</v>
+      </c>
+      <c r="F273" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="303" spans="2:6">
+      <c r="B303" t="s">
+        <v>33</v>
+      </c>
+      <c r="C303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D303" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" t="s">
+        <v>14</v>
+      </c>
+      <c r="F303" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
   <si>
     <t>时间</t>
   </si>
@@ -116,19 +116,17 @@
   </si>
   <si>
     <t>2、开通mks账号和权限</t>
+  </si>
+  <si>
+    <t>1、拉取在售商品基本信息、30天销量、可用库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,151 +143,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -302,194 +162,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -497,251 +171,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -759,57 +191,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -820,7 +205,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -842,7 +227,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -886,7 +271,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -930,7 +315,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -968,7 +353,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1006,7 +391,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1050,7 +435,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1094,7 +479,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1132,7 +517,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1170,7 +555,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1208,7 +593,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1246,7 +631,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1284,7 +669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1322,7 +707,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1360,7 +745,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1369,6 +754,50 @@
         <a:xfrm>
           <a:off x="1819275" y="52539900"/>
           <a:ext cx="4963160" cy="5191760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5658595</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>124494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952625" y="58140600"/>
+          <a:ext cx="5334745" cy="4791744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,21 +1061,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G303"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
+      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
@@ -1656,7 +1084,7 @@
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>43222</v>
       </c>
@@ -1699,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:6">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +1144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:6">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -1733,12 +1161,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="7:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
       <c r="G62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:6">
+    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B82" t="s">
         <v>18</v>
       </c>
@@ -1755,7 +1183,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:6">
+    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B106" s="3" t="s">
         <v>20</v>
       </c>
@@ -1772,7 +1200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:7">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A144" s="2">
         <v>43223</v>
       </c>
@@ -1795,7 +1223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A177" s="2">
         <v>43224</v>
       </c>
@@ -1815,7 +1243,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A210" s="2">
         <v>43227</v>
       </c>
@@ -1835,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="s">
         <v>30</v>
@@ -1853,7 +1281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A273" s="2">
         <v>43230</v>
       </c>
@@ -1873,7 +1301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="2:6">
+    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B303" t="s">
         <v>33</v>
       </c>
@@ -1890,9 +1318,29 @@
         <v>11</v>
       </c>
     </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A336" s="2">
+        <v>43234</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C336" t="s">
+        <v>28</v>
+      </c>
+      <c r="D336" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" t="s">
+        <v>14</v>
+      </c>
+      <c r="F336" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>时间</t>
   </si>
@@ -119,6 +119,26 @@
   </si>
   <si>
     <t>1、拉取在售商品基本信息、30天销量、可用库存</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、档案系统拉取数据，需要：SKUID、SKU名称、市场价、会员价、品牌、条码、箱规</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘丹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李海涛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -798,6 +818,50 @@
         <a:xfrm>
           <a:off x="1952625" y="58140600"/>
           <a:ext cx="5334745" cy="4791744"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>368</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>77220</xdr:colOff>
+      <xdr:row>399</xdr:row>
+      <xdr:rowOff>143637</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="63493650"/>
+          <a:ext cx="7306695" cy="5458587"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1067,11 +1131,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:G367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A341" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C342" sqref="C342"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F367" sqref="F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1338,6 +1402,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A367" s="2">
+        <v>43236</v>
+      </c>
+      <c r="B367" t="s">
+        <v>35</v>
+      </c>
+      <c r="C367" t="s">
+        <v>36</v>
+      </c>
+      <c r="D367" t="s">
+        <v>37</v>
+      </c>
+      <c r="E367" t="s">
+        <v>38</v>
+      </c>
+      <c r="F367" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>时间</t>
   </si>
@@ -862,6 +862,50 @@
         <a:xfrm>
           <a:off x="1809750" y="63493650"/>
           <a:ext cx="7306695" cy="5458587"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>401</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5477612</xdr:colOff>
+      <xdr:row>427</xdr:row>
+      <xdr:rowOff>143496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="69303900"/>
+          <a:ext cx="5277587" cy="4448796"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1131,11 +1175,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G367"/>
+  <dimension ref="A1:G401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A362" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F367" sqref="F367"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1422,6 +1466,26 @@
         <v>39</v>
       </c>
     </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A401" s="2">
+        <v>43243</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C401" t="s">
+        <v>28</v>
+      </c>
+      <c r="D401" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" t="s">
+        <v>14</v>
+      </c>
+      <c r="F401" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
   <si>
     <t>时间</t>
   </si>
@@ -139,6 +139,14 @@
   </si>
   <si>
     <t>已处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、新增并开通特卖权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁楚</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -906,6 +914,44 @@
         <a:xfrm>
           <a:off x="1828800" y="69303900"/>
           <a:ext cx="5277587" cy="4448796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>430</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3771460</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>66256</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="74266425"/>
+          <a:ext cx="3523810" cy="3352381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,11 +1221,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G401"/>
+  <dimension ref="A1:G430"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A407" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B404" sqref="B404"/>
+      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C430" sqref="C430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1486,6 +1532,26 @@
         <v>11</v>
       </c>
     </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A430" s="2">
+        <v>43244</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C430" t="s">
+        <v>41</v>
+      </c>
+      <c r="D430" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" t="s">
+        <v>14</v>
+      </c>
+      <c r="F430" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="28695" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="李海涛" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>时间</t>
   </si>
@@ -118,43 +118,38 @@
     <t>2、开通mks账号和权限</t>
   </si>
   <si>
-    <t>1、拉取在售商品基本信息、30天销量、可用库存</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1、档案系统拉取数据，需要：SKUID、SKU名称、市场价、会员价、品牌、条码、箱规</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘丹</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李海涛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>已处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1、新增并开通特卖权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>袁楚</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、搜索功能不可用</t>
+  </si>
+  <si>
+    <t>朱伟/刘丹/张雪顺/吕海琴</t>
+  </si>
+  <si>
+    <t>查询代码逻辑，很费时间</t>
+  </si>
+  <si>
+    <t>2、网安关键词屏蔽</t>
+  </si>
+  <si>
+    <t>邹艳红</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,13 +166,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +323,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -199,9 +518,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -219,10 +780,57 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -233,7 +841,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -255,7 +863,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -299,7 +907,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -343,7 +951,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -381,7 +989,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -406,8 +1014,8 @@
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>391306</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1372381</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>57601</xdr:rowOff>
     </xdr:to>
@@ -419,7 +1027,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -450,8 +1058,8 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>601166</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2144216</xdr:colOff>
       <xdr:row>141</xdr:row>
       <xdr:rowOff>10350</xdr:rowOff>
     </xdr:to>
@@ -463,7 +1071,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip r:embed="rId6">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -507,7 +1115,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -533,7 +1141,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1419860</xdr:colOff>
+      <xdr:colOff>667385</xdr:colOff>
       <xdr:row>174</xdr:row>
       <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
@@ -545,7 +1153,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -583,7 +1191,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -608,8 +1216,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76835</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1057910</xdr:colOff>
       <xdr:row>207</xdr:row>
       <xdr:rowOff>143510</xdr:rowOff>
     </xdr:to>
@@ -621,7 +1229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:blip r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -659,7 +1267,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -697,7 +1305,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -735,7 +1343,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -773,7 +1381,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:blip r:embed="rId14"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -811,7 +1419,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -825,7 +1433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1952625" y="58140600"/>
-          <a:ext cx="5334745" cy="4791744"/>
+          <a:ext cx="5334635" cy="4791710"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -842,8 +1450,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>77220</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1620270</xdr:colOff>
       <xdr:row>399</xdr:row>
       <xdr:rowOff>143637</xdr:rowOff>
     </xdr:to>
@@ -855,7 +1463,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip r:embed="rId16">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -869,7 +1477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1809750" y="63493650"/>
-          <a:ext cx="7306695" cy="5458587"/>
+          <a:ext cx="7306310" cy="5458460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -899,7 +1507,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip r:embed="rId17">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -913,7 +1521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1828800" y="69303900"/>
-          <a:ext cx="5277587" cy="4448796"/>
+          <a:ext cx="5277485" cy="4448175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -943,7 +1551,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:blip r:embed="rId18"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -951,7 +1559,83 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1876425" y="74266425"/>
-          <a:ext cx="3523810" cy="3352381"/>
+          <a:ext cx="3523615" cy="3352165"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200660</xdr:colOff>
+      <xdr:row>475</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19" descr="1527732231(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="78219300"/>
+          <a:ext cx="5934710" cy="3782060"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>478</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>143510</xdr:colOff>
+      <xdr:row>502</xdr:row>
+      <xdr:rowOff>105410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20" descr="1527733679(1)"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1809750" y="82515075"/>
+          <a:ext cx="5829935" cy="4058285"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1215,30 +1899,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G478"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A416" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C430" sqref="C430"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G453" sqref="G453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="21.375" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="20.25" customWidth="1"/>
+    <col min="3" max="3" width="30.125" customWidth="1"/>
     <col min="4" max="5" width="22.75" customWidth="1"/>
     <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="7" width="85.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="45" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1261,7 +1946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>43222</v>
       </c>
@@ -1281,7 +1966,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:6">
       <c r="B33" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:6">
       <c r="B60" t="s">
         <v>15</v>
       </c>
@@ -1315,12 +2000,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="7:7">
       <c r="G62" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:6">
       <c r="B82" t="s">
         <v>18</v>
       </c>
@@ -1337,7 +2022,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:6">
       <c r="B106" s="3" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +2039,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:7">
       <c r="A144" s="2">
         <v>43223</v>
       </c>
@@ -1377,7 +2062,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>43224</v>
       </c>
@@ -1397,7 +2082,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>43227</v>
       </c>
@@ -1417,7 +2102,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:6">
       <c r="A243" s="2"/>
       <c r="B243" s="3" t="s">
         <v>30</v>
@@ -1435,7 +2120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:6">
       <c r="A273" s="2">
         <v>43230</v>
       </c>
@@ -1455,7 +2140,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="303" spans="2:6">
       <c r="B303" t="s">
         <v>33</v>
       </c>
@@ -1472,12 +2157,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:6">
       <c r="A336" s="2">
         <v>43234</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C336" t="s">
         <v>28</v>
@@ -1492,32 +2177,32 @@
         <v>11</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="367" spans="1:6">
       <c r="A367" s="2">
         <v>43236</v>
       </c>
       <c r="B367" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C367" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D367" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E367" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F367" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="401" spans="1:6">
       <c r="A401" s="2">
         <v>43243</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C401" t="s">
         <v>28</v>
@@ -1532,15 +2217,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="430" spans="1:6">
       <c r="A430" s="2">
         <v>43244</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C430" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D430" t="s">
         <v>9</v>
@@ -1552,9 +2237,49 @@
         <v>11</v>
       </c>
     </row>
+    <row r="453" customFormat="1" spans="1:7">
+      <c r="A453" s="2">
+        <v>43250</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C453" t="s">
+        <v>37</v>
+      </c>
+      <c r="D453" t="s">
+        <v>9</v>
+      </c>
+      <c r="E453" t="s">
+        <v>14</v>
+      </c>
+      <c r="F453" t="s">
+        <v>11</v>
+      </c>
+      <c r="G453" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="478" spans="2:6">
+      <c r="B478" t="s">
+        <v>39</v>
+      </c>
+      <c r="C478" t="s">
+        <v>40</v>
+      </c>
+      <c r="D478" t="s">
+        <v>9</v>
+      </c>
+      <c r="E478" t="s">
+        <v>14</v>
+      </c>
+      <c r="F478" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
+++ b/MyMyzj/2017-12-08（开始）/MYZJ_2018-05 日常维护.xlsx
@@ -1907,10 +1907,10 @@
   <sheetPr/>
   <dimension ref="A1:G478"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A449" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G453" sqref="G453"/>
+      <selection pane="bottomLeft" activeCell="G490" sqref="G490"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
